--- a/data/trans_orig/Q17B-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q17B-Clase-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>0.2796318343091719</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.320061701901912</v>
+        <v>0.3200617019019119</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.2715867240346731</v>
@@ -693,7 +693,7 @@
         <v>0.3103540920808942</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.3401807700767112</v>
+        <v>0.3401807700767111</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1653310875621957</v>
+        <v>0.163707193109231</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1711696683585752</v>
+        <v>0.1754246206902451</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2295013590040749</v>
+        <v>0.2268992769388501</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2537458897555949</v>
+        <v>0.2590752550539785</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2188852737241299</v>
+        <v>0.2141911745423457</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.26087399196803</v>
+        <v>0.2605413078678651</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2734766435676064</v>
+        <v>0.2740407393791018</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.305966762623224</v>
+        <v>0.3055004568820188</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1975943442676243</v>
+        <v>0.2002317824173243</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2227013487892044</v>
+        <v>0.2194411160065817</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2677728841520092</v>
+        <v>0.2625074877950296</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.298939747561437</v>
+        <v>0.2944201690262195</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2841072142026248</v>
+        <v>0.2849132604174515</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2879125803261727</v>
+        <v>0.2916508034414642</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3462211681090871</v>
+        <v>0.3458235724867346</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4109054575692708</v>
+        <v>0.415406370610366</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3401448822616655</v>
+        <v>0.3357964980379067</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4192923101714148</v>
+        <v>0.4335130009280513</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.470543047780443</v>
+        <v>0.4645833161440779</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4718455238310862</v>
+        <v>0.4657735089063963</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2839294852008874</v>
+        <v>0.284197455418</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3223238732370665</v>
+        <v>0.3184468038889516</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3649410926875841</v>
+        <v>0.3711691663332022</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.404663837481563</v>
+        <v>0.4103665326019364</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>0.2776379371831818</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2462937833536609</v>
+        <v>0.2462937833536608</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.2968226111734362</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1731697548065753</v>
+        <v>0.1772493843516421</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2264972120027784</v>
+        <v>0.232528613201908</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2218351801035203</v>
+        <v>0.2221611222400226</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2014316428560155</v>
+        <v>0.1983435366531242</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2508123275019909</v>
+        <v>0.2484206518690276</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2973431189471832</v>
+        <v>0.2936843704721924</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2242746085728553</v>
+        <v>0.2296911087360436</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2525484139280462</v>
+        <v>0.2538595577555576</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2254221554814024</v>
+        <v>0.2212086211457265</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.273573935638941</v>
+        <v>0.279334763417042</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2352179678785446</v>
+        <v>0.2396181858859589</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.239270905674191</v>
+        <v>0.2410134592723107</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4137367423198439</v>
+        <v>0.4350241718288196</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3663682351331282</v>
+        <v>0.3710124710460364</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3516858023920377</v>
+        <v>0.3500879934784263</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3081587113998288</v>
+        <v>0.3177718243759915</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3625176241575024</v>
+        <v>0.365939849834098</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.44688615534833</v>
+        <v>0.4499569406925515</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3385581729016809</v>
+        <v>0.339054587516819</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3627165794312069</v>
+        <v>0.3674973843525316</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3496297809488389</v>
+        <v>0.354155208826162</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3764003292848641</v>
+        <v>0.3812275100509257</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3173394490393924</v>
+        <v>0.3239031665532571</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3188556470291445</v>
+        <v>0.3157221108713261</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2070434881637606</v>
+        <v>0.2067646701471272</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2657120051115779</v>
+        <v>0.2704888269633311</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.298311908909928</v>
+        <v>0.3016434919551284</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2102690058246585</v>
+        <v>0.2175845937548103</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3383247222023633</v>
+        <v>0.3398880455841595</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3473626802398958</v>
+        <v>0.3536221016929095</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3095962759987094</v>
+        <v>0.3148917919414297</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2746141926414528</v>
+        <v>0.271702030511305</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2545877634770363</v>
+        <v>0.2504962260219165</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.30743280097557</v>
+        <v>0.3053877737248151</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3201063259413611</v>
+        <v>0.3190265833194999</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2467982188657285</v>
+        <v>0.2457849509109099</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3116509670415271</v>
+        <v>0.3105683278639203</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.390229128022882</v>
+        <v>0.3838226608367527</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4138922620343789</v>
+        <v>0.4158907170919026</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3493099760007795</v>
+        <v>0.3524604021620582</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6570150571631292</v>
+        <v>0.6556229149236076</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5036699438981325</v>
+        <v>0.5184850202930885</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4969239113699507</v>
+        <v>0.5044112499302045</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4322922583591045</v>
+        <v>0.4249571849952018</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3593572405978847</v>
+        <v>0.3634214334554179</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4017440205326387</v>
+        <v>0.4002999159751839</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.424166433317301</v>
+        <v>0.4125973283254271</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3509874583759905</v>
+        <v>0.3464142080552405</v>
       </c>
     </row>
     <row r="13">
@@ -1101,7 +1101,7 @@
         <v>0.3667173544446579</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.2937448463306089</v>
+        <v>0.2937448463306088</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2472093874976419</v>
+        <v>0.2494590581050291</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2966829884980652</v>
+        <v>0.2966907136401266</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2883230574608033</v>
+        <v>0.2861699014968055</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2155472009335973</v>
+        <v>0.2142587330373725</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3531170061369413</v>
+        <v>0.3545635166797417</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3716380945939178</v>
+        <v>0.3674185563163922</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3561577454282167</v>
+        <v>0.3570499878419383</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3076807545747667</v>
+        <v>0.3069162104076561</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2969973073682782</v>
+        <v>0.298191788993774</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3406226505077392</v>
+        <v>0.3389526946979314</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3292777101067174</v>
+        <v>0.328865832135017</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2659518103597415</v>
+        <v>0.2615532133144019</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3243202865315113</v>
+        <v>0.3254621556347348</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3920678135080082</v>
+        <v>0.3841012177549452</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4096130813406629</v>
+        <v>0.4082331786767903</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2899554477035687</v>
+        <v>0.286571550490323</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4742481267060898</v>
+        <v>0.475096599453976</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4795426926554135</v>
+        <v>0.4833855516748</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4868676766000399</v>
+        <v>0.4978758976767</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4132170805016664</v>
+        <v>0.4078887741044503</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3593767154158231</v>
+        <v>0.3638005654014185</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.4115171738796671</v>
+        <v>0.4102021622790323</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4156186012067531</v>
+        <v>0.4137866637539493</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3213197787528147</v>
+        <v>0.3257093352814487</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2223884809607151</v>
+        <v>0.224755751809203</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2182955634153773</v>
+        <v>0.216798080277242</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3015649827990564</v>
+        <v>0.295672406731316</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1621263071526459</v>
+        <v>0.1579580095653066</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3665617716103174</v>
+        <v>0.3641983724508304</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.4301866095362291</v>
+        <v>0.4297751417468162</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3859890381579865</v>
+        <v>0.3873526127037749</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2985719852398523</v>
+        <v>0.2985918172588763</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3206591949283136</v>
+        <v>0.3239152713667342</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3584412308654834</v>
+        <v>0.3582396033725874</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3684795762838463</v>
+        <v>0.3590918936596574</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2546302667292525</v>
+        <v>0.2557094525274344</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3540725942814708</v>
+        <v>0.3528590318299722</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3380951202449954</v>
+        <v>0.3396571320797541</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4398912176005103</v>
+        <v>0.4341925084414835</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2668179459768884</v>
+        <v>0.261437412322003</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4840406841337651</v>
+        <v>0.4820127920365886</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.538292463085781</v>
+        <v>0.5382420297030697</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.5086734926263022</v>
+        <v>0.5158645290317004</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3752163692773404</v>
+        <v>0.3790397529981178</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4113151397581022</v>
+        <v>0.4145482107211291</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.4464863955356917</v>
+        <v>0.4385083875323678</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.457428439884636</v>
+        <v>0.4563018109400872</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3203933294400595</v>
+        <v>0.3194190652460382</v>
       </c>
     </row>
     <row r="19">
@@ -1349,7 +1349,7 @@
         <v>0.2175513269066787</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.09653598652435144</v>
+        <v>0.09653598652435147</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.3700026679070288</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.06187700760300459</v>
+        <v>0.06223565877630102</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.123384452873205</v>
+        <v>0.1266146801666307</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1548168399586079</v>
+        <v>0.150203508047677</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.04686167198442692</v>
+        <v>0.04916137598511366</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.3329020795931008</v>
+        <v>0.3328670647206813</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.3601808554691486</v>
+        <v>0.3569135519898871</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.4123237365743783</v>
+        <v>0.4125320596015368</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2399539709951737</v>
+        <v>0.2370950289799632</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.286094215603136</v>
+        <v>0.2854280401754861</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.320379832034031</v>
+        <v>0.3176785212459257</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.3676619831387396</v>
+        <v>0.3667366719869351</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2063754964180806</v>
+        <v>0.2039922967646026</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1388707905962156</v>
+        <v>0.1366676341793993</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2377279588031603</v>
+        <v>0.2379652255336628</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.365484814345489</v>
+        <v>0.3441464350151066</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1764105292524488</v>
+        <v>0.1739832245263097</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.4241808219693257</v>
+        <v>0.43436305003543</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.4898786177530626</v>
+        <v>0.4782013442753822</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.5505138447534174</v>
+        <v>0.5510045987100142</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3080388617866892</v>
+        <v>0.3068511774196192</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3679222078548784</v>
+        <v>0.359167797984647</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.418197730511458</v>
+        <v>0.4170575249565022</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.4925955965959586</v>
+        <v>0.4902504374651124</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2673085751925853</v>
+        <v>0.2641173760952009</v>
       </c>
     </row>
     <row r="22">
@@ -1485,7 +1485,7 @@
         <v>0.3193439499044841</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2447392069773507</v>
+        <v>0.2447392069773508</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.3718674467640821</v>
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2225210031549855</v>
+        <v>0.2241632848505806</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2680753521844141</v>
+        <v>0.2687779610475634</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2932692102893878</v>
+        <v>0.2941642436739478</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2244185587389967</v>
+        <v>0.2237431055195051</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3485759235332511</v>
+        <v>0.3479038030380002</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3910927009978388</v>
+        <v>0.390298708785654</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.3868275383190268</v>
+        <v>0.3870330182802342</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3064443178275809</v>
+        <v>0.3062478357909546</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2938996239888329</v>
+        <v>0.293979386998692</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.335618332165413</v>
+        <v>0.3368952296494494</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.3500843069585517</v>
+        <v>0.3492247682342948</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2717110865249502</v>
+        <v>0.2727851179715814</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2717606960173043</v>
+        <v>0.2687785808934172</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3154043004721263</v>
+        <v>0.3192394594208397</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3516651639021569</v>
+        <v>0.3513350635108159</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2680354550726513</v>
+        <v>0.2686200860599679</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3988012428817883</v>
+        <v>0.3997877885254323</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4443016077804866</v>
+        <v>0.444211457066271</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.44970550877921</v>
+        <v>0.4500104253768035</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3491943035694308</v>
+        <v>0.3483961578328181</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3269670669131923</v>
+        <v>0.3280329445861047</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3722522168829544</v>
+        <v>0.3740655019677619</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3924877613164331</v>
+        <v>0.3906081303403114</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3021326808912526</v>
+        <v>0.3030675661339344</v>
       </c>
     </row>
     <row r="25">
